--- a/my_excel_file.xlsx
+++ b/my_excel_file.xlsx
@@ -6,19 +6,21 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Termination" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Hardship" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="InService" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Loan" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="All Combined" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Termination-Completed" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Termination-No Process" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Hardship-Completed" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="InService-Completed" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Loan-Completed" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Contact Out-Completed" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="All Combined" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t xml:space="preserve">transaction</t>
+    <t xml:space="preserve">work_type</t>
   </si>
   <si>
     <t xml:space="preserve">week</t>
@@ -39,7 +41,16 @@
     <t xml:space="preserve">cumulative_fte_saved</t>
   </si>
   <si>
+    <t xml:space="preserve">completion_type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Termination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Process</t>
   </si>
   <si>
     <t xml:space="preserve">Hardship</t>
@@ -49,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Out</t>
   </si>
 </sst>
 </file>
@@ -402,10 +416,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -425,10 +442,13 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -448,10 +468,13 @@
       <c r="G3" t="n">
         <v>0.18</v>
       </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -471,10 +494,13 @@
       <c r="G4" t="n">
         <v>0.36</v>
       </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
@@ -494,10 +520,13 @@
       <c r="G5" t="n">
         <v>0.53</v>
       </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
@@ -517,10 +546,13 @@
       <c r="G6" t="n">
         <v>0.7</v>
       </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
@@ -540,10 +572,13 @@
       <c r="G7" t="n">
         <v>0.87</v>
       </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
@@ -563,10 +598,13 @@
       <c r="G8" t="n">
         <v>1.03</v>
       </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
         <v>7</v>
@@ -586,10 +624,13 @@
       <c r="G9" t="n">
         <v>1.19</v>
       </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>8</v>
@@ -609,10 +650,13 @@
       <c r="G10" t="n">
         <v>1.35</v>
       </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="n">
         <v>9</v>
@@ -632,10 +676,13 @@
       <c r="G11" t="n">
         <v>1.5</v>
       </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="n">
         <v>10</v>
@@ -655,10 +702,13 @@
       <c r="G12" t="n">
         <v>1.65</v>
       </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="n">
         <v>11</v>
@@ -678,10 +728,13 @@
       <c r="G13" t="n">
         <v>1.8</v>
       </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" t="n">
         <v>12</v>
@@ -701,10 +754,13 @@
       <c r="G14" t="n">
         <v>1.95</v>
       </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="n">
         <v>13</v>
@@ -724,10 +780,13 @@
       <c r="G15" t="n">
         <v>2.09</v>
       </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="n">
         <v>14</v>
@@ -747,10 +806,13 @@
       <c r="G16" t="n">
         <v>2.23</v>
       </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
         <v>15</v>
@@ -770,10 +832,13 @@
       <c r="G17" t="n">
         <v>2.37</v>
       </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" t="n">
         <v>16</v>
@@ -793,10 +858,13 @@
       <c r="G18" t="n">
         <v>2.5</v>
       </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" t="n">
         <v>17</v>
@@ -816,10 +884,13 @@
       <c r="G19" t="n">
         <v>2.63</v>
       </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" t="n">
         <v>18</v>
@@ -839,10 +910,13 @@
       <c r="G20" t="n">
         <v>2.76</v>
       </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="n">
         <v>19</v>
@@ -862,10 +936,13 @@
       <c r="G21" t="n">
         <v>2.89</v>
       </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" t="n">
         <v>20</v>
@@ -885,10 +962,13 @@
       <c r="G22" t="n">
         <v>3.01</v>
       </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="n">
         <v>21</v>
@@ -908,10 +988,13 @@
       <c r="G23" t="n">
         <v>3.13</v>
       </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" t="n">
         <v>22</v>
@@ -931,10 +1014,13 @@
       <c r="G24" t="n">
         <v>3.25</v>
       </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" t="n">
         <v>23</v>
@@ -954,10 +1040,13 @@
       <c r="G25" t="n">
         <v>3.37</v>
       </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" t="n">
         <v>24</v>
@@ -977,10 +1066,13 @@
       <c r="G26" t="n">
         <v>3.48</v>
       </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" t="n">
         <v>25</v>
@@ -1000,10 +1092,13 @@
       <c r="G27" t="n">
         <v>3.59</v>
       </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" t="n">
         <v>26</v>
@@ -1023,10 +1118,13 @@
       <c r="G28" t="n">
         <v>3.7</v>
       </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" t="n">
         <v>27</v>
@@ -1046,10 +1144,13 @@
       <c r="G29" t="n">
         <v>3.81</v>
       </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" t="n">
         <v>28</v>
@@ -1069,10 +1170,13 @@
       <c r="G30" t="n">
         <v>3.92</v>
       </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" t="n">
         <v>29</v>
@@ -1092,10 +1196,13 @@
       <c r="G31" t="n">
         <v>4.02</v>
       </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" t="n">
         <v>30</v>
@@ -1115,10 +1222,13 @@
       <c r="G32" t="n">
         <v>4.12</v>
       </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" t="n">
         <v>31</v>
@@ -1138,10 +1248,13 @@
       <c r="G33" t="n">
         <v>4.22</v>
       </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" t="n">
         <v>32</v>
@@ -1161,10 +1274,13 @@
       <c r="G34" t="n">
         <v>4.32</v>
       </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" t="n">
         <v>33</v>
@@ -1184,10 +1300,13 @@
       <c r="G35" t="n">
         <v>4.42</v>
       </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" t="n">
         <v>34</v>
@@ -1207,10 +1326,13 @@
       <c r="G36" t="n">
         <v>4.51</v>
       </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" t="n">
         <v>35</v>
@@ -1230,10 +1352,13 @@
       <c r="G37" t="n">
         <v>4.6</v>
       </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" t="n">
         <v>36</v>
@@ -1253,10 +1378,13 @@
       <c r="G38" t="n">
         <v>4.69</v>
       </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" t="n">
         <v>37</v>
@@ -1276,10 +1404,13 @@
       <c r="G39" t="n">
         <v>4.78</v>
       </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" t="n">
         <v>38</v>
@@ -1299,10 +1430,13 @@
       <c r="G40" t="n">
         <v>4.87</v>
       </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" t="n">
         <v>39</v>
@@ -1322,10 +1456,13 @@
       <c r="G41" t="n">
         <v>4.95</v>
       </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" t="n">
         <v>40</v>
@@ -1345,10 +1482,13 @@
       <c r="G42" t="n">
         <v>5.03</v>
       </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43" t="n">
         <v>41</v>
@@ -1368,10 +1508,13 @@
       <c r="G43" t="n">
         <v>5.11</v>
       </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" t="n">
         <v>42</v>
@@ -1391,10 +1534,13 @@
       <c r="G44" t="n">
         <v>5.19</v>
       </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45" t="n">
         <v>43</v>
@@ -1414,10 +1560,13 @@
       <c r="G45" t="n">
         <v>5.27</v>
       </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B46" t="n">
         <v>44</v>
@@ -1437,10 +1586,13 @@
       <c r="G46" t="n">
         <v>5.35</v>
       </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B47" t="n">
         <v>45</v>
@@ -1460,10 +1612,13 @@
       <c r="G47" t="n">
         <v>5.42</v>
       </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B48" t="n">
         <v>46</v>
@@ -1483,10 +1638,13 @@
       <c r="G48" t="n">
         <v>5.49</v>
       </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B49" t="n">
         <v>47</v>
@@ -1506,10 +1664,13 @@
       <c r="G49" t="n">
         <v>5.56</v>
       </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B50" t="n">
         <v>48</v>
@@ -1529,10 +1690,13 @@
       <c r="G50" t="n">
         <v>5.63</v>
       </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51" t="n">
         <v>49</v>
@@ -1552,10 +1716,13 @@
       <c r="G51" t="n">
         <v>5.7</v>
       </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B52" t="n">
         <v>50</v>
@@ -1575,10 +1742,13 @@
       <c r="G52" t="n">
         <v>5.77</v>
       </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B53" t="n">
         <v>51</v>
@@ -1598,10 +1768,13 @@
       <c r="G53" t="n">
         <v>5.84</v>
       </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B54" t="n">
         <v>52</v>
@@ -1620,6 +1793,9 @@
       </c>
       <c r="G54" t="n">
         <v>5.91</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1658,6 +1834,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1667,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1681,6 +1860,9 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1690,19 +1872,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>78416</v>
+        <v>98020</v>
       </c>
       <c r="D3" t="n">
-        <v>1584</v>
+        <v>1980</v>
       </c>
       <c r="E3" t="n">
-        <v>210.67</v>
+        <v>132.66</v>
       </c>
       <c r="F3" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1713,19 +1898,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>76863</v>
+        <v>96079</v>
       </c>
       <c r="D4" t="n">
-        <v>1553</v>
+        <v>1941</v>
       </c>
       <c r="E4" t="n">
-        <v>206.55</v>
+        <v>130.05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="G4" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1736,19 +1924,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>75342</v>
+        <v>94177</v>
       </c>
       <c r="D5" t="n">
-        <v>1521</v>
+        <v>1902</v>
       </c>
       <c r="E5" t="n">
-        <v>202.29</v>
+        <v>127.43</v>
       </c>
       <c r="F5" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="G5" t="n">
-        <v>0.42</v>
+        <v>0.27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1759,19 +1950,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>73850</v>
+        <v>92312</v>
       </c>
       <c r="D6" t="n">
-        <v>1492</v>
+        <v>1865</v>
       </c>
       <c r="E6" t="n">
-        <v>198.44</v>
+        <v>124.96</v>
       </c>
       <c r="F6" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="G6" t="n">
-        <v>0.56</v>
+        <v>0.36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1782,19 +1976,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>72388</v>
+        <v>90485</v>
       </c>
       <c r="D7" t="n">
-        <v>1462</v>
+        <v>1827</v>
       </c>
       <c r="E7" t="n">
-        <v>194.45</v>
+        <v>122.41</v>
       </c>
       <c r="F7" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="G7" t="n">
-        <v>0.69</v>
+        <v>0.44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1805,19 +2002,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>70955</v>
+        <v>88693</v>
       </c>
       <c r="D8" t="n">
-        <v>1433</v>
+        <v>1792</v>
       </c>
       <c r="E8" t="n">
-        <v>190.59</v>
+        <v>120.06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="G8" t="n">
-        <v>0.82</v>
+        <v>0.52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1828,19 +2028,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>69550</v>
+        <v>86937</v>
       </c>
       <c r="D9" t="n">
-        <v>1405</v>
+        <v>1756</v>
       </c>
       <c r="E9" t="n">
-        <v>186.86</v>
+        <v>117.65</v>
       </c>
       <c r="F9" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.95</v>
+        <v>0.6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1851,19 +2054,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>68173</v>
+        <v>85216</v>
       </c>
       <c r="D10" t="n">
-        <v>1377</v>
+        <v>1721</v>
       </c>
       <c r="E10" t="n">
-        <v>183.14</v>
+        <v>115.31</v>
       </c>
       <c r="F10" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="G10" t="n">
-        <v>1.08</v>
+        <v>0.68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1874,19 +2080,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>66823</v>
+        <v>83529</v>
       </c>
       <c r="D11" t="n">
-        <v>1350</v>
+        <v>1687</v>
       </c>
       <c r="E11" t="n">
-        <v>179.55</v>
+        <v>113.03</v>
       </c>
       <c r="F11" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>0.76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1897,19 +2106,22 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>65500</v>
+        <v>81875</v>
       </c>
       <c r="D12" t="n">
-        <v>1323</v>
+        <v>1654</v>
       </c>
       <c r="E12" t="n">
-        <v>175.96</v>
+        <v>110.82</v>
       </c>
       <c r="F12" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G12" t="n">
-        <v>1.32</v>
+        <v>0.84</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1920,19 +2132,22 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>64203</v>
+        <v>80254</v>
       </c>
       <c r="D13" t="n">
-        <v>1297</v>
+        <v>1621</v>
       </c>
       <c r="E13" t="n">
-        <v>172.5</v>
+        <v>108.61</v>
       </c>
       <c r="F13" t="n">
-        <v>0.12</v>
+        <v>0.07</v>
       </c>
       <c r="G13" t="n">
-        <v>1.44</v>
+        <v>0.91</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1943,19 +2158,22 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>62932</v>
+        <v>78665</v>
       </c>
       <c r="D14" t="n">
-        <v>1271</v>
+        <v>1589</v>
       </c>
       <c r="E14" t="n">
-        <v>169.04</v>
+        <v>106.46</v>
       </c>
       <c r="F14" t="n">
-        <v>0.12</v>
+        <v>0.07</v>
       </c>
       <c r="G14" t="n">
-        <v>1.56</v>
+        <v>0.98</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1966,19 +2184,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>61686</v>
+        <v>77107</v>
       </c>
       <c r="D15" t="n">
-        <v>1246</v>
+        <v>1558</v>
       </c>
       <c r="E15" t="n">
-        <v>165.72</v>
+        <v>104.39</v>
       </c>
       <c r="F15" t="n">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="G15" t="n">
-        <v>1.67</v>
+        <v>1.05</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1989,19 +2210,22 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>60464</v>
+        <v>75581</v>
       </c>
       <c r="D16" t="n">
-        <v>1222</v>
+        <v>1526</v>
       </c>
       <c r="E16" t="n">
-        <v>162.53</v>
+        <v>102.24</v>
       </c>
       <c r="F16" t="n">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="G16" t="n">
-        <v>1.78</v>
+        <v>1.12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2012,19 +2236,22 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>59267</v>
+        <v>74084</v>
       </c>
       <c r="D17" t="n">
-        <v>1197</v>
+        <v>1497</v>
       </c>
       <c r="E17" t="n">
-        <v>159.2</v>
+        <v>100.3</v>
       </c>
       <c r="F17" t="n">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="G17" t="n">
-        <v>1.89</v>
+        <v>1.19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -2035,19 +2262,22 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>58094</v>
+        <v>72617</v>
       </c>
       <c r="D18" t="n">
-        <v>1173</v>
+        <v>1467</v>
       </c>
       <c r="E18" t="n">
-        <v>156.01</v>
+        <v>98.29</v>
       </c>
       <c r="F18" t="n">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1.26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2058,19 +2288,22 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>56944</v>
+        <v>71180</v>
       </c>
       <c r="D19" t="n">
-        <v>1150</v>
+        <v>1437</v>
       </c>
       <c r="E19" t="n">
-        <v>152.95</v>
+        <v>96.28</v>
       </c>
       <c r="F19" t="n">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="G19" t="n">
-        <v>2.11</v>
+        <v>1.33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2081,19 +2314,22 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>55816</v>
+        <v>69770</v>
       </c>
       <c r="D20" t="n">
-        <v>1128</v>
+        <v>1410</v>
       </c>
       <c r="E20" t="n">
-        <v>150.02</v>
+        <v>94.47</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G20" t="n">
-        <v>2.21</v>
+        <v>1.39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2104,19 +2340,22 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>54711</v>
+        <v>68389</v>
       </c>
       <c r="D21" t="n">
-        <v>1105</v>
+        <v>1381</v>
       </c>
       <c r="E21" t="n">
-        <v>146.96</v>
+        <v>92.53</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G21" t="n">
-        <v>2.31</v>
+        <v>1.45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2127,19 +2366,22 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>53628</v>
+        <v>67035</v>
       </c>
       <c r="D22" t="n">
-        <v>1083</v>
+        <v>1354</v>
       </c>
       <c r="E22" t="n">
-        <v>144.04</v>
+        <v>90.72</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G22" t="n">
-        <v>2.41</v>
+        <v>1.51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2150,19 +2392,22 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>52566</v>
+        <v>65708</v>
       </c>
       <c r="D23" t="n">
-        <v>1062</v>
+        <v>1327</v>
       </c>
       <c r="E23" t="n">
-        <v>141.25</v>
+        <v>88.91</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G23" t="n">
-        <v>2.51</v>
+        <v>1.57</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2418,22 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>51525</v>
+        <v>64407</v>
       </c>
       <c r="D24" t="n">
-        <v>1041</v>
+        <v>1301</v>
       </c>
       <c r="E24" t="n">
-        <v>138.45</v>
+        <v>87.17</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G24" t="n">
-        <v>2.61</v>
+        <v>1.63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2196,19 +2444,22 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>50505</v>
+        <v>63131</v>
       </c>
       <c r="D25" t="n">
-        <v>1020</v>
+        <v>1276</v>
       </c>
       <c r="E25" t="n">
-        <v>135.66</v>
+        <v>85.49</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>1.69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2219,19 +2470,22 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>49505</v>
+        <v>61881</v>
       </c>
       <c r="D26" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="E26" t="n">
-        <v>133</v>
+        <v>83.75</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G26" t="n">
-        <v>2.79</v>
+        <v>1.75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2242,19 +2496,22 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>48525</v>
+        <v>60656</v>
       </c>
       <c r="D27" t="n">
-        <v>980</v>
+        <v>1225</v>
       </c>
       <c r="E27" t="n">
-        <v>130.34</v>
+        <v>82.08</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G27" t="n">
-        <v>2.88</v>
+        <v>1.81</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2265,19 +2522,22 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>47564</v>
+        <v>59455</v>
       </c>
       <c r="D28" t="n">
-        <v>961</v>
+        <v>1201</v>
       </c>
       <c r="E28" t="n">
-        <v>127.81</v>
+        <v>80.47</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G28" t="n">
-        <v>2.97</v>
+        <v>1.87</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2288,19 +2548,22 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>46622</v>
+        <v>58278</v>
       </c>
       <c r="D29" t="n">
-        <v>942</v>
+        <v>1177</v>
       </c>
       <c r="E29" t="n">
-        <v>125.29</v>
+        <v>78.86</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="G29" t="n">
-        <v>3.06</v>
+        <v>1.92</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2311,19 +2574,22 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>45699</v>
+        <v>57124</v>
       </c>
       <c r="D30" t="n">
-        <v>923</v>
+        <v>1154</v>
       </c>
       <c r="E30" t="n">
-        <v>122.76</v>
+        <v>77.32</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G30" t="n">
-        <v>3.14</v>
+        <v>1.97</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2334,19 +2600,22 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>44795</v>
+        <v>55993</v>
       </c>
       <c r="D31" t="n">
-        <v>904</v>
+        <v>1131</v>
       </c>
       <c r="E31" t="n">
-        <v>120.23</v>
+        <v>75.78</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G31" t="n">
-        <v>3.22</v>
+        <v>2.02</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2357,19 +2626,22 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>43908</v>
+        <v>54885</v>
       </c>
       <c r="D32" t="n">
-        <v>887</v>
+        <v>1108</v>
       </c>
       <c r="E32" t="n">
-        <v>117.97</v>
+        <v>74.24</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G32" t="n">
-        <v>3.3</v>
+        <v>2.07</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2380,19 +2652,22 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>43038</v>
+        <v>53798</v>
       </c>
       <c r="D33" t="n">
-        <v>870</v>
+        <v>1087</v>
       </c>
       <c r="E33" t="n">
-        <v>115.71</v>
+        <v>72.83</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G33" t="n">
-        <v>3.38</v>
+        <v>2.12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2403,19 +2678,22 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>42186</v>
+        <v>52733</v>
       </c>
       <c r="D34" t="n">
-        <v>852</v>
+        <v>1065</v>
       </c>
       <c r="E34" t="n">
-        <v>113.32</v>
+        <v>71.36</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G34" t="n">
-        <v>3.46</v>
+        <v>2.17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -2426,19 +2704,22 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>41351</v>
+        <v>51689</v>
       </c>
       <c r="D35" t="n">
-        <v>835</v>
+        <v>1044</v>
       </c>
       <c r="E35" t="n">
-        <v>111.06</v>
+        <v>69.95</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G35" t="n">
-        <v>3.54</v>
+        <v>2.22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -2449,19 +2730,22 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>40532</v>
+        <v>50665</v>
       </c>
       <c r="D36" t="n">
-        <v>819</v>
+        <v>1024</v>
       </c>
       <c r="E36" t="n">
-        <v>108.93</v>
+        <v>68.61</v>
       </c>
       <c r="F36" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="G36" t="n">
-        <v>3.61</v>
+        <v>2.27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -2472,19 +2756,22 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>39730</v>
+        <v>49662</v>
       </c>
       <c r="D37" t="n">
-        <v>802</v>
+        <v>1003</v>
       </c>
       <c r="E37" t="n">
-        <v>106.67</v>
+        <v>67.2</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="G37" t="n">
-        <v>3.68</v>
+        <v>2.32</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -2495,19 +2782,22 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>38943</v>
+        <v>48679</v>
       </c>
       <c r="D38" t="n">
-        <v>787</v>
+        <v>983</v>
       </c>
       <c r="E38" t="n">
-        <v>104.67</v>
+        <v>65.86</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="G38" t="n">
-        <v>3.75</v>
+        <v>2.37</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2518,19 +2808,22 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>38172</v>
+        <v>47715</v>
       </c>
       <c r="D39" t="n">
-        <v>771</v>
+        <v>964</v>
       </c>
       <c r="E39" t="n">
-        <v>102.54</v>
+        <v>64.59</v>
       </c>
       <c r="F39" t="n">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
       <c r="G39" t="n">
-        <v>3.82</v>
+        <v>2.41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2541,19 +2834,22 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>37416</v>
+        <v>46770</v>
       </c>
       <c r="D40" t="n">
-        <v>756</v>
+        <v>945</v>
       </c>
       <c r="E40" t="n">
-        <v>100.55</v>
+        <v>63.32</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
       <c r="G40" t="n">
-        <v>3.89</v>
+        <v>2.45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2564,19 +2860,22 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>36675</v>
+        <v>45844</v>
       </c>
       <c r="D41" t="n">
-        <v>741</v>
+        <v>926</v>
       </c>
       <c r="E41" t="n">
-        <v>98.55</v>
+        <v>62.04</v>
       </c>
       <c r="F41" t="n">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
       <c r="G41" t="n">
-        <v>3.96</v>
+        <v>2.49</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -2587,19 +2886,22 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>35949</v>
+        <v>44937</v>
       </c>
       <c r="D42" t="n">
-        <v>726</v>
+        <v>907</v>
       </c>
       <c r="E42" t="n">
-        <v>96.56</v>
+        <v>60.77</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
       <c r="G42" t="n">
-        <v>4.03</v>
+        <v>2.53</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -2610,19 +2912,22 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>35238</v>
+        <v>44047</v>
       </c>
       <c r="D43" t="n">
-        <v>711</v>
+        <v>890</v>
       </c>
       <c r="E43" t="n">
-        <v>94.56</v>
+        <v>59.63</v>
       </c>
       <c r="F43" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G43" t="n">
-        <v>4.09</v>
+        <v>2.57</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -2633,19 +2938,22 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>34540</v>
+        <v>43175</v>
       </c>
       <c r="D44" t="n">
-        <v>698</v>
+        <v>872</v>
       </c>
       <c r="E44" t="n">
-        <v>92.83</v>
+        <v>58.42</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G44" t="n">
-        <v>4.15</v>
+        <v>2.61</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -2656,19 +2964,22 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>33856</v>
+        <v>42320</v>
       </c>
       <c r="D45" t="n">
-        <v>684</v>
+        <v>855</v>
       </c>
       <c r="E45" t="n">
-        <v>90.97</v>
+        <v>57.29</v>
       </c>
       <c r="F45" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G45" t="n">
-        <v>4.21</v>
+        <v>2.65</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -2679,19 +2990,22 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>33186</v>
+        <v>41482</v>
       </c>
       <c r="D46" t="n">
-        <v>670</v>
+        <v>838</v>
       </c>
       <c r="E46" t="n">
-        <v>89.11</v>
+        <v>56.15</v>
       </c>
       <c r="F46" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G46" t="n">
-        <v>4.27</v>
+        <v>2.69</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2702,19 +3016,22 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>32529</v>
+        <v>40661</v>
       </c>
       <c r="D47" t="n">
-        <v>657</v>
+        <v>821</v>
       </c>
       <c r="E47" t="n">
-        <v>87.38</v>
+        <v>55.01</v>
       </c>
       <c r="F47" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G47" t="n">
-        <v>4.33</v>
+        <v>2.73</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -2725,19 +3042,22 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>31885</v>
+        <v>39856</v>
       </c>
       <c r="D48" t="n">
-        <v>644</v>
+        <v>805</v>
       </c>
       <c r="E48" t="n">
-        <v>85.65</v>
+        <v>53.94</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G48" t="n">
-        <v>4.39</v>
+        <v>2.77</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2748,19 +3068,22 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>31253</v>
+        <v>39067</v>
       </c>
       <c r="D49" t="n">
-        <v>632</v>
+        <v>789</v>
       </c>
       <c r="E49" t="n">
-        <v>84.06</v>
+        <v>52.86</v>
       </c>
       <c r="F49" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G49" t="n">
-        <v>4.45</v>
+        <v>2.81</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -2771,19 +3094,22 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>30634</v>
+        <v>38293</v>
       </c>
       <c r="D50" t="n">
-        <v>619</v>
+        <v>774</v>
       </c>
       <c r="E50" t="n">
-        <v>82.33</v>
+        <v>51.86</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G50" t="n">
-        <v>4.51</v>
+        <v>2.85</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2794,19 +3120,22 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>30028</v>
+        <v>37535</v>
       </c>
       <c r="D51" t="n">
-        <v>606</v>
+        <v>758</v>
       </c>
       <c r="E51" t="n">
-        <v>80.6</v>
+        <v>50.79</v>
       </c>
       <c r="F51" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="G51" t="n">
-        <v>4.57</v>
+        <v>2.88</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -2817,19 +3146,22 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>29433</v>
+        <v>36792</v>
       </c>
       <c r="D52" t="n">
-        <v>595</v>
+        <v>743</v>
       </c>
       <c r="E52" t="n">
-        <v>79.14</v>
+        <v>49.78</v>
       </c>
       <c r="F52" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G52" t="n">
-        <v>4.62</v>
+        <v>2.91</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -2840,19 +3172,22 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>28851</v>
+        <v>36063</v>
       </c>
       <c r="D53" t="n">
-        <v>582</v>
+        <v>729</v>
       </c>
       <c r="E53" t="n">
-        <v>77.41</v>
+        <v>48.84</v>
       </c>
       <c r="F53" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G53" t="n">
-        <v>4.67</v>
+        <v>2.94</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -2863,19 +3198,22 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>28279</v>
+        <v>35349</v>
       </c>
       <c r="D54" t="n">
-        <v>572</v>
+        <v>714</v>
       </c>
       <c r="E54" t="n">
-        <v>76.08</v>
+        <v>47.84</v>
       </c>
       <c r="F54" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G54" t="n">
-        <v>4.72</v>
+        <v>2.97</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2914,16 +3252,19 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2937,1201 +3278,1360 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>117624</v>
+        <v>78416</v>
       </c>
       <c r="D3" t="n">
-        <v>2376</v>
+        <v>1584</v>
       </c>
       <c r="E3" t="n">
-        <v>316.01</v>
+        <v>210.67</v>
       </c>
       <c r="F3" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>115295</v>
+        <v>76863</v>
       </c>
       <c r="D4" t="n">
-        <v>2329</v>
+        <v>1553</v>
       </c>
       <c r="E4" t="n">
-        <v>309.76</v>
+        <v>206.55</v>
       </c>
       <c r="F4" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="G4" t="n">
-        <v>0.43</v>
+        <v>0.28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>113012</v>
+        <v>75342</v>
       </c>
       <c r="D5" t="n">
-        <v>2283</v>
+        <v>1521</v>
       </c>
       <c r="E5" t="n">
-        <v>303.64</v>
+        <v>202.29</v>
       </c>
       <c r="F5" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.64</v>
+        <v>0.42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>110775</v>
+        <v>73850</v>
       </c>
       <c r="D6" t="n">
-        <v>2237</v>
+        <v>1492</v>
       </c>
       <c r="E6" t="n">
-        <v>297.52</v>
+        <v>198.44</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.84</v>
+        <v>0.56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>108582</v>
+        <v>72388</v>
       </c>
       <c r="D7" t="n">
-        <v>2193</v>
+        <v>1462</v>
       </c>
       <c r="E7" t="n">
-        <v>291.67</v>
+        <v>194.45</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="G7" t="n">
-        <v>1.04</v>
+        <v>0.69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>106432</v>
+        <v>70955</v>
       </c>
       <c r="D8" t="n">
-        <v>2150</v>
+        <v>1433</v>
       </c>
       <c r="E8" t="n">
-        <v>285.95</v>
+        <v>190.59</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="G8" t="n">
-        <v>1.24</v>
+        <v>0.82</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n">
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>104325</v>
+        <v>69550</v>
       </c>
       <c r="D9" t="n">
-        <v>2107</v>
+        <v>1405</v>
       </c>
       <c r="E9" t="n">
-        <v>280.23</v>
+        <v>186.86</v>
       </c>
       <c r="F9" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="G9" t="n">
-        <v>1.43</v>
+        <v>0.95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>102259</v>
+        <v>68173</v>
       </c>
       <c r="D10" t="n">
-        <v>2066</v>
+        <v>1377</v>
       </c>
       <c r="E10" t="n">
-        <v>274.78</v>
+        <v>183.14</v>
       </c>
       <c r="F10" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="G10" t="n">
-        <v>1.62</v>
+        <v>1.08</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100234</v>
+        <v>66823</v>
       </c>
       <c r="D11" t="n">
-        <v>2025</v>
+        <v>1350</v>
       </c>
       <c r="E11" t="n">
-        <v>269.32</v>
+        <v>179.55</v>
       </c>
       <c r="F11" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>98250</v>
+        <v>65500</v>
       </c>
       <c r="D12" t="n">
-        <v>1984</v>
+        <v>1323</v>
       </c>
       <c r="E12" t="n">
-        <v>263.87</v>
+        <v>175.96</v>
       </c>
       <c r="F12" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="G12" t="n">
-        <v>1.98</v>
+        <v>1.32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>96304</v>
+        <v>64203</v>
       </c>
       <c r="D13" t="n">
-        <v>1946</v>
+        <v>1297</v>
       </c>
       <c r="E13" t="n">
-        <v>258.82</v>
+        <v>172.5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="G13" t="n">
-        <v>2.16</v>
+        <v>1.44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" t="n">
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>94398</v>
+        <v>62932</v>
       </c>
       <c r="D14" t="n">
-        <v>1906</v>
+        <v>1271</v>
       </c>
       <c r="E14" t="n">
-        <v>253.5</v>
+        <v>169.04</v>
       </c>
       <c r="F14" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G14" t="n">
-        <v>2.33</v>
+        <v>1.56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" t="n">
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>92529</v>
+        <v>61686</v>
       </c>
       <c r="D15" t="n">
-        <v>1869</v>
+        <v>1246</v>
       </c>
       <c r="E15" t="n">
-        <v>248.58</v>
+        <v>165.72</v>
       </c>
       <c r="F15" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" t="n">
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>90697</v>
+        <v>60464</v>
       </c>
       <c r="D16" t="n">
-        <v>1832</v>
+        <v>1222</v>
       </c>
       <c r="E16" t="n">
-        <v>243.66</v>
+        <v>162.53</v>
       </c>
       <c r="F16" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G16" t="n">
-        <v>2.67</v>
+        <v>1.78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17" t="n">
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>88901</v>
+        <v>59267</v>
       </c>
       <c r="D17" t="n">
-        <v>1796</v>
+        <v>1197</v>
       </c>
       <c r="E17" t="n">
-        <v>238.87</v>
+        <v>159.2</v>
       </c>
       <c r="F17" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="G17" t="n">
-        <v>2.83</v>
+        <v>1.89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" t="n">
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>87141</v>
+        <v>58094</v>
       </c>
       <c r="D18" t="n">
-        <v>1760</v>
+        <v>1173</v>
       </c>
       <c r="E18" t="n">
-        <v>234.08</v>
+        <v>156.01</v>
       </c>
       <c r="F18" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="G18" t="n">
-        <v>2.99</v>
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>85415</v>
+        <v>56944</v>
       </c>
       <c r="D19" t="n">
-        <v>1726</v>
+        <v>1150</v>
       </c>
       <c r="E19" t="n">
-        <v>229.56</v>
+        <v>152.95</v>
       </c>
       <c r="F19" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="G19" t="n">
-        <v>3.15</v>
+        <v>2.11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>83724</v>
+        <v>55816</v>
       </c>
       <c r="D20" t="n">
-        <v>1691</v>
+        <v>1128</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9</v>
+        <v>150.02</v>
       </c>
       <c r="F20" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>2.21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" t="n">
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>82067</v>
+        <v>54711</v>
       </c>
       <c r="D21" t="n">
-        <v>1657</v>
+        <v>1105</v>
       </c>
       <c r="E21" t="n">
-        <v>220.38</v>
+        <v>146.96</v>
       </c>
       <c r="F21" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G21" t="n">
-        <v>3.45</v>
+        <v>2.31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B22" t="n">
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>80442</v>
+        <v>53628</v>
       </c>
       <c r="D22" t="n">
-        <v>1625</v>
+        <v>1083</v>
       </c>
       <c r="E22" t="n">
-        <v>216.12</v>
+        <v>144.04</v>
       </c>
       <c r="F22" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G22" t="n">
-        <v>3.6</v>
+        <v>2.41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" t="n">
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>78849</v>
+        <v>52566</v>
       </c>
       <c r="D23" t="n">
-        <v>1593</v>
+        <v>1062</v>
       </c>
       <c r="E23" t="n">
-        <v>211.87</v>
+        <v>141.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>2.51</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B24" t="n">
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>77288</v>
+        <v>51525</v>
       </c>
       <c r="D24" t="n">
-        <v>1561</v>
+        <v>1041</v>
       </c>
       <c r="E24" t="n">
-        <v>207.61</v>
+        <v>138.45</v>
       </c>
       <c r="F24" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="G24" t="n">
-        <v>3.89</v>
+        <v>2.61</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B25" t="n">
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>75758</v>
+        <v>50505</v>
       </c>
       <c r="D25" t="n">
-        <v>1530</v>
+        <v>1020</v>
       </c>
       <c r="E25" t="n">
-        <v>203.49</v>
+        <v>135.66</v>
       </c>
       <c r="F25" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="G25" t="n">
-        <v>4.03</v>
+        <v>2.7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" t="n">
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>74258</v>
+        <v>49505</v>
       </c>
       <c r="D26" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E26" t="n">
-        <v>199.5</v>
+        <v>133</v>
       </c>
       <c r="F26" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="G26" t="n">
-        <v>4.17</v>
+        <v>2.79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B27" t="n">
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>72787</v>
+        <v>48525</v>
       </c>
       <c r="D27" t="n">
-        <v>1471</v>
+        <v>980</v>
       </c>
       <c r="E27" t="n">
-        <v>195.64</v>
+        <v>130.34</v>
       </c>
       <c r="F27" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="G27" t="n">
-        <v>4.3</v>
+        <v>2.88</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B28" t="n">
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>71346</v>
+        <v>47564</v>
       </c>
       <c r="D28" t="n">
-        <v>1441</v>
+        <v>961</v>
       </c>
       <c r="E28" t="n">
-        <v>191.65</v>
+        <v>127.81</v>
       </c>
       <c r="F28" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="G28" t="n">
-        <v>4.43</v>
+        <v>2.97</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B29" t="n">
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>69934</v>
+        <v>46622</v>
       </c>
       <c r="D29" t="n">
-        <v>1412</v>
+        <v>942</v>
       </c>
       <c r="E29" t="n">
-        <v>187.8</v>
+        <v>125.29</v>
       </c>
       <c r="F29" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="G29" t="n">
-        <v>4.56</v>
+        <v>3.06</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B30" t="n">
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>68549</v>
+        <v>45699</v>
       </c>
       <c r="D30" t="n">
-        <v>1385</v>
+        <v>923</v>
       </c>
       <c r="E30" t="n">
-        <v>184.21</v>
+        <v>122.76</v>
       </c>
       <c r="F30" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="G30" t="n">
-        <v>4.69</v>
+        <v>3.14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" t="n">
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>67192</v>
+        <v>44795</v>
       </c>
       <c r="D31" t="n">
-        <v>1357</v>
+        <v>904</v>
       </c>
       <c r="E31" t="n">
-        <v>180.48</v>
+        <v>120.23</v>
       </c>
       <c r="F31" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G31" t="n">
-        <v>4.81</v>
+        <v>3.22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B32" t="n">
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>65861</v>
+        <v>43908</v>
       </c>
       <c r="D32" t="n">
-        <v>1331</v>
+        <v>887</v>
       </c>
       <c r="E32" t="n">
-        <v>177.02</v>
+        <v>117.97</v>
       </c>
       <c r="F32" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G32" t="n">
-        <v>4.93</v>
+        <v>3.3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B33" t="n">
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>64557</v>
+        <v>43038</v>
       </c>
       <c r="D33" t="n">
-        <v>1304</v>
+        <v>870</v>
       </c>
       <c r="E33" t="n">
-        <v>173.43</v>
+        <v>115.71</v>
       </c>
       <c r="F33" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G33" t="n">
-        <v>5.05</v>
+        <v>3.38</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B34" t="n">
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>63279</v>
+        <v>42186</v>
       </c>
       <c r="D34" t="n">
-        <v>1278</v>
+        <v>852</v>
       </c>
       <c r="E34" t="n">
-        <v>169.97</v>
+        <v>113.32</v>
       </c>
       <c r="F34" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G34" t="n">
-        <v>5.17</v>
+        <v>3.46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B35" t="n">
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>62026</v>
+        <v>41351</v>
       </c>
       <c r="D35" t="n">
-        <v>1253</v>
+        <v>835</v>
       </c>
       <c r="E35" t="n">
-        <v>166.65</v>
+        <v>111.06</v>
       </c>
       <c r="F35" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="G35" t="n">
-        <v>5.28</v>
+        <v>3.54</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B36" t="n">
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>60798</v>
+        <v>40532</v>
       </c>
       <c r="D36" t="n">
-        <v>1228</v>
+        <v>819</v>
       </c>
       <c r="E36" t="n">
-        <v>163.32</v>
+        <v>108.93</v>
       </c>
       <c r="F36" t="n">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="G36" t="n">
-        <v>5.39</v>
+        <v>3.61</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B37" t="n">
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>59595</v>
+        <v>39730</v>
       </c>
       <c r="D37" t="n">
-        <v>1203</v>
+        <v>802</v>
       </c>
       <c r="E37" t="n">
-        <v>160</v>
+        <v>106.67</v>
       </c>
       <c r="F37" t="n">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="G37" t="n">
-        <v>5.5</v>
+        <v>3.68</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B38" t="n">
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>58415</v>
+        <v>38943</v>
       </c>
       <c r="D38" t="n">
-        <v>1180</v>
+        <v>787</v>
       </c>
       <c r="E38" t="n">
-        <v>156.94</v>
+        <v>104.67</v>
       </c>
       <c r="F38" t="n">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="G38" t="n">
-        <v>5.61</v>
+        <v>3.75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B39" t="n">
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>57258</v>
+        <v>38172</v>
       </c>
       <c r="D39" t="n">
-        <v>1157</v>
+        <v>771</v>
       </c>
       <c r="E39" t="n">
-        <v>153.88</v>
+        <v>102.54</v>
       </c>
       <c r="F39" t="n">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="G39" t="n">
-        <v>5.72</v>
+        <v>3.82</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40" t="n">
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>56124</v>
+        <v>37416</v>
       </c>
       <c r="D40" t="n">
-        <v>1134</v>
+        <v>756</v>
       </c>
       <c r="E40" t="n">
-        <v>150.82</v>
+        <v>100.55</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
       <c r="G40" t="n">
-        <v>5.82</v>
+        <v>3.89</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B41" t="n">
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>55013</v>
+        <v>36675</v>
       </c>
       <c r="D41" t="n">
-        <v>1111</v>
+        <v>741</v>
       </c>
       <c r="E41" t="n">
-        <v>147.76</v>
+        <v>98.55</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
       <c r="G41" t="n">
-        <v>5.92</v>
+        <v>3.96</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B42" t="n">
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>53924</v>
+        <v>35949</v>
       </c>
       <c r="D42" t="n">
-        <v>1089</v>
+        <v>726</v>
       </c>
       <c r="E42" t="n">
-        <v>144.84</v>
+        <v>96.56</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
       <c r="G42" t="n">
-        <v>6.02</v>
+        <v>4.03</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B43" t="n">
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>52856</v>
+        <v>35238</v>
       </c>
       <c r="D43" t="n">
-        <v>1068</v>
+        <v>711</v>
       </c>
       <c r="E43" t="n">
-        <v>142.04</v>
+        <v>94.56</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G43" t="n">
-        <v>6.12</v>
+        <v>4.09</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B44" t="n">
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>51810</v>
+        <v>34540</v>
       </c>
       <c r="D44" t="n">
-        <v>1046</v>
+        <v>698</v>
       </c>
       <c r="E44" t="n">
-        <v>139.12</v>
+        <v>92.83</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G44" t="n">
-        <v>6.22</v>
+        <v>4.15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B45" t="n">
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>50784</v>
+        <v>33856</v>
       </c>
       <c r="D45" t="n">
-        <v>1026</v>
+        <v>684</v>
       </c>
       <c r="E45" t="n">
-        <v>136.46</v>
+        <v>90.97</v>
       </c>
       <c r="F45" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G45" t="n">
-        <v>6.31</v>
+        <v>4.21</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B46" t="n">
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>49778</v>
+        <v>33186</v>
       </c>
       <c r="D46" t="n">
-        <v>1006</v>
+        <v>670</v>
       </c>
       <c r="E46" t="n">
-        <v>133.8</v>
+        <v>89.11</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G46" t="n">
-        <v>6.4</v>
+        <v>4.27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B47" t="n">
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>48793</v>
+        <v>32529</v>
       </c>
       <c r="D47" t="n">
-        <v>985</v>
+        <v>657</v>
       </c>
       <c r="E47" t="n">
-        <v>131</v>
+        <v>87.38</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G47" t="n">
-        <v>6.49</v>
+        <v>4.33</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B48" t="n">
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>47827</v>
+        <v>31885</v>
       </c>
       <c r="D48" t="n">
-        <v>966</v>
+        <v>644</v>
       </c>
       <c r="E48" t="n">
-        <v>128.48</v>
+        <v>85.65</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G48" t="n">
-        <v>6.58</v>
+        <v>4.39</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B49" t="n">
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>46880</v>
+        <v>31253</v>
       </c>
       <c r="D49" t="n">
-        <v>947</v>
+        <v>632</v>
       </c>
       <c r="E49" t="n">
-        <v>125.95</v>
+        <v>84.06</v>
       </c>
       <c r="F49" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G49" t="n">
-        <v>6.67</v>
+        <v>4.45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B50" t="n">
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>45952</v>
+        <v>30634</v>
       </c>
       <c r="D50" t="n">
-        <v>928</v>
+        <v>619</v>
       </c>
       <c r="E50" t="n">
-        <v>123.42</v>
+        <v>82.33</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G50" t="n">
-        <v>6.75</v>
+        <v>4.51</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B51" t="n">
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>45042</v>
+        <v>30028</v>
       </c>
       <c r="D51" t="n">
-        <v>910</v>
+        <v>606</v>
       </c>
       <c r="E51" t="n">
-        <v>121.03</v>
+        <v>80.6</v>
       </c>
       <c r="F51" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G51" t="n">
-        <v>6.83</v>
+        <v>4.57</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B52" t="n">
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>44150</v>
+        <v>29433</v>
       </c>
       <c r="D52" t="n">
-        <v>892</v>
+        <v>595</v>
       </c>
       <c r="E52" t="n">
-        <v>118.64</v>
+        <v>79.14</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G52" t="n">
-        <v>6.91</v>
+        <v>4.62</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B53" t="n">
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>43276</v>
+        <v>28851</v>
       </c>
       <c r="D53" t="n">
-        <v>874</v>
+        <v>582</v>
       </c>
       <c r="E53" t="n">
-        <v>116.24</v>
+        <v>77.41</v>
       </c>
       <c r="F53" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G53" t="n">
-        <v>6.99</v>
+        <v>4.67</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B54" t="n">
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>42419</v>
+        <v>28279</v>
       </c>
       <c r="D54" t="n">
-        <v>857</v>
+        <v>572</v>
       </c>
       <c r="E54" t="n">
-        <v>113.98</v>
+        <v>76.08</v>
       </c>
       <c r="F54" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G54" t="n">
-        <v>7.07</v>
+        <v>4.72</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4170,16 +4670,19 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4193,1201 +4696,1360 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>39208</v>
+        <v>117624</v>
       </c>
       <c r="D3" t="n">
-        <v>792</v>
+        <v>2376</v>
       </c>
       <c r="E3" t="n">
-        <v>105.34</v>
+        <v>316.01</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07</v>
+        <v>0.22</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07</v>
+        <v>0.22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>38432</v>
+        <v>115295</v>
       </c>
       <c r="D4" t="n">
-        <v>776</v>
+        <v>2329</v>
       </c>
       <c r="E4" t="n">
-        <v>103.21</v>
+        <v>309.76</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07</v>
+        <v>0.21</v>
       </c>
       <c r="G4" t="n">
-        <v>0.14</v>
+        <v>0.43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>37671</v>
+        <v>113012</v>
       </c>
       <c r="D5" t="n">
-        <v>761</v>
+        <v>2283</v>
       </c>
       <c r="E5" t="n">
-        <v>101.21</v>
+        <v>303.64</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07</v>
+        <v>0.21</v>
       </c>
       <c r="G5" t="n">
-        <v>0.21</v>
+        <v>0.64</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>36925</v>
+        <v>110775</v>
       </c>
       <c r="D6" t="n">
-        <v>746</v>
+        <v>2237</v>
       </c>
       <c r="E6" t="n">
-        <v>99.22</v>
+        <v>297.52</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.28</v>
+        <v>0.84</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>36194</v>
+        <v>108582</v>
       </c>
       <c r="D7" t="n">
-        <v>731</v>
+        <v>2193</v>
       </c>
       <c r="E7" t="n">
-        <v>97.22</v>
+        <v>291.67</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07</v>
+        <v>0.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.35</v>
+        <v>1.04</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>35477</v>
+        <v>106432</v>
       </c>
       <c r="D8" t="n">
-        <v>717</v>
+        <v>2150</v>
       </c>
       <c r="E8" t="n">
-        <v>95.36</v>
+        <v>285.95</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07</v>
+        <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.42</v>
+        <v>1.24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>34775</v>
+        <v>104325</v>
       </c>
       <c r="D9" t="n">
-        <v>702</v>
+        <v>2107</v>
       </c>
       <c r="E9" t="n">
-        <v>93.37</v>
+        <v>280.23</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="G9" t="n">
-        <v>0.48</v>
+        <v>1.43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n">
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>34086</v>
+        <v>102259</v>
       </c>
       <c r="D10" t="n">
-        <v>689</v>
+        <v>2066</v>
       </c>
       <c r="E10" t="n">
-        <v>91.64</v>
+        <v>274.78</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="G10" t="n">
-        <v>0.54</v>
+        <v>1.62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>33411</v>
+        <v>100234</v>
       </c>
       <c r="D11" t="n">
-        <v>675</v>
+        <v>2025</v>
       </c>
       <c r="E11" t="n">
-        <v>89.78</v>
+        <v>269.32</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="n">
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>32750</v>
+        <v>98250</v>
       </c>
       <c r="D12" t="n">
-        <v>661</v>
+        <v>1984</v>
       </c>
       <c r="E12" t="n">
-        <v>87.91</v>
+        <v>263.87</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="G12" t="n">
-        <v>0.66</v>
+        <v>1.98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>32101</v>
+        <v>96304</v>
       </c>
       <c r="D13" t="n">
-        <v>649</v>
+        <v>1946</v>
       </c>
       <c r="E13" t="n">
-        <v>86.32</v>
+        <v>258.82</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="G13" t="n">
-        <v>0.72</v>
+        <v>2.16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>31466</v>
+        <v>94398</v>
       </c>
       <c r="D14" t="n">
-        <v>635</v>
+        <v>1906</v>
       </c>
       <c r="E14" t="n">
-        <v>84.46</v>
+        <v>253.5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.78</v>
+        <v>2.33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" t="n">
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>30843</v>
+        <v>92529</v>
       </c>
       <c r="D15" t="n">
-        <v>623</v>
+        <v>1869</v>
       </c>
       <c r="E15" t="n">
-        <v>82.86</v>
+        <v>248.58</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="G15" t="n">
-        <v>0.84</v>
+        <v>2.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16" t="n">
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>30232</v>
+        <v>90697</v>
       </c>
       <c r="D16" t="n">
-        <v>611</v>
+        <v>1832</v>
       </c>
       <c r="E16" t="n">
-        <v>81.26</v>
+        <v>243.66</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9</v>
+        <v>2.67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17" t="n">
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>29634</v>
+        <v>88901</v>
       </c>
       <c r="D17" t="n">
-        <v>598</v>
+        <v>1796</v>
       </c>
       <c r="E17" t="n">
-        <v>79.53</v>
+        <v>238.87</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.95</v>
+        <v>2.83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18" t="n">
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>29047</v>
+        <v>87141</v>
       </c>
       <c r="D18" t="n">
-        <v>587</v>
+        <v>1760</v>
       </c>
       <c r="E18" t="n">
-        <v>78.07</v>
+        <v>234.08</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2.99</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19" t="n">
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>28472</v>
+        <v>85415</v>
       </c>
       <c r="D19" t="n">
-        <v>575</v>
+        <v>1726</v>
       </c>
       <c r="E19" t="n">
-        <v>76.48</v>
+        <v>229.56</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="G19" t="n">
-        <v>1.05</v>
+        <v>3.15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>27908</v>
+        <v>83724</v>
       </c>
       <c r="D20" t="n">
-        <v>564</v>
+        <v>1691</v>
       </c>
       <c r="E20" t="n">
-        <v>75.01</v>
+        <v>224.9</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="G20" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>27356</v>
+        <v>82067</v>
       </c>
       <c r="D21" t="n">
-        <v>552</v>
+        <v>1657</v>
       </c>
       <c r="E21" t="n">
-        <v>73.42</v>
+        <v>220.38</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="G21" t="n">
-        <v>1.15</v>
+        <v>3.45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B22" t="n">
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>26814</v>
+        <v>80442</v>
       </c>
       <c r="D22" t="n">
-        <v>542</v>
+        <v>1625</v>
       </c>
       <c r="E22" t="n">
-        <v>72.09</v>
+        <v>216.12</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B23" t="n">
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>26283</v>
+        <v>78849</v>
       </c>
       <c r="D23" t="n">
-        <v>531</v>
+        <v>1593</v>
       </c>
       <c r="E23" t="n">
-        <v>70.62</v>
+        <v>211.87</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="G23" t="n">
-        <v>1.25</v>
+        <v>3.75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24" t="n">
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>25763</v>
+        <v>77288</v>
       </c>
       <c r="D24" t="n">
-        <v>520</v>
+        <v>1561</v>
       </c>
       <c r="E24" t="n">
-        <v>69.16</v>
+        <v>207.61</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>3.89</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B25" t="n">
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>25253</v>
+        <v>75758</v>
       </c>
       <c r="D25" t="n">
-        <v>510</v>
+        <v>1530</v>
       </c>
       <c r="E25" t="n">
-        <v>67.83</v>
+        <v>203.49</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="G25" t="n">
-        <v>1.35</v>
+        <v>4.03</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B26" t="n">
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>24753</v>
+        <v>74258</v>
       </c>
       <c r="D26" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E26" t="n">
-        <v>66.5</v>
+        <v>199.5</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>4.17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B27" t="n">
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>24262</v>
+        <v>72787</v>
       </c>
       <c r="D27" t="n">
-        <v>491</v>
+        <v>1471</v>
       </c>
       <c r="E27" t="n">
-        <v>65.3</v>
+        <v>195.64</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="G27" t="n">
-        <v>1.44</v>
+        <v>4.3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B28" t="n">
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>23782</v>
+        <v>71346</v>
       </c>
       <c r="D28" t="n">
-        <v>480</v>
+        <v>1441</v>
       </c>
       <c r="E28" t="n">
-        <v>63.84</v>
+        <v>191.65</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="G28" t="n">
-        <v>1.48</v>
+        <v>4.43</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B29" t="n">
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>23311</v>
+        <v>69934</v>
       </c>
       <c r="D29" t="n">
-        <v>471</v>
+        <v>1412</v>
       </c>
       <c r="E29" t="n">
-        <v>62.64</v>
+        <v>187.8</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="G29" t="n">
-        <v>1.52</v>
+        <v>4.56</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B30" t="n">
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>22850</v>
+        <v>68549</v>
       </c>
       <c r="D30" t="n">
-        <v>461</v>
+        <v>1385</v>
       </c>
       <c r="E30" t="n">
-        <v>61.31</v>
+        <v>184.21</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="G30" t="n">
-        <v>1.56</v>
+        <v>4.69</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B31" t="n">
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>22397</v>
+        <v>67192</v>
       </c>
       <c r="D31" t="n">
-        <v>453</v>
+        <v>1357</v>
       </c>
       <c r="E31" t="n">
-        <v>60.25</v>
+        <v>180.48</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>4.81</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" t="n">
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>21954</v>
+        <v>65861</v>
       </c>
       <c r="D32" t="n">
-        <v>443</v>
+        <v>1331</v>
       </c>
       <c r="E32" t="n">
-        <v>58.92</v>
+        <v>177.02</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="G32" t="n">
-        <v>1.64</v>
+        <v>4.93</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B33" t="n">
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>21519</v>
+        <v>64557</v>
       </c>
       <c r="D33" t="n">
-        <v>435</v>
+        <v>1304</v>
       </c>
       <c r="E33" t="n">
-        <v>57.86</v>
+        <v>173.43</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="G33" t="n">
-        <v>1.68</v>
+        <v>5.05</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>21093</v>
+        <v>63279</v>
       </c>
       <c r="D34" t="n">
-        <v>426</v>
+        <v>1278</v>
       </c>
       <c r="E34" t="n">
-        <v>56.66</v>
+        <v>169.97</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="G34" t="n">
-        <v>1.72</v>
+        <v>5.17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B35" t="n">
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>20675</v>
+        <v>62026</v>
       </c>
       <c r="D35" t="n">
-        <v>418</v>
+        <v>1253</v>
       </c>
       <c r="E35" t="n">
-        <v>55.59</v>
+        <v>166.65</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="G35" t="n">
-        <v>1.76</v>
+        <v>5.28</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B36" t="n">
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>20266</v>
+        <v>60798</v>
       </c>
       <c r="D36" t="n">
-        <v>409</v>
+        <v>1228</v>
       </c>
       <c r="E36" t="n">
-        <v>54.4</v>
+        <v>163.32</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>5.39</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B37" t="n">
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>19865</v>
+        <v>59595</v>
       </c>
       <c r="D37" t="n">
-        <v>401</v>
+        <v>1203</v>
       </c>
       <c r="E37" t="n">
-        <v>53.33</v>
+        <v>160</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="G37" t="n">
-        <v>1.84</v>
+        <v>5.5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B38" t="n">
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>19472</v>
+        <v>58415</v>
       </c>
       <c r="D38" t="n">
-        <v>393</v>
+        <v>1180</v>
       </c>
       <c r="E38" t="n">
-        <v>52.27</v>
+        <v>156.94</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="G38" t="n">
-        <v>1.88</v>
+        <v>5.61</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B39" t="n">
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>19086</v>
+        <v>57258</v>
       </c>
       <c r="D39" t="n">
-        <v>386</v>
+        <v>1157</v>
       </c>
       <c r="E39" t="n">
-        <v>51.34</v>
+        <v>153.88</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="G39" t="n">
-        <v>1.92</v>
+        <v>5.72</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B40" t="n">
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>18708</v>
+        <v>56124</v>
       </c>
       <c r="D40" t="n">
-        <v>378</v>
+        <v>1134</v>
       </c>
       <c r="E40" t="n">
-        <v>50.27</v>
+        <v>150.82</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="G40" t="n">
-        <v>1.95</v>
+        <v>5.82</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B41" t="n">
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>18338</v>
+        <v>55013</v>
       </c>
       <c r="D41" t="n">
-        <v>370</v>
+        <v>1111</v>
       </c>
       <c r="E41" t="n">
-        <v>49.21</v>
+        <v>147.76</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="G41" t="n">
-        <v>1.98</v>
+        <v>5.92</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B42" t="n">
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>17975</v>
+        <v>53924</v>
       </c>
       <c r="D42" t="n">
-        <v>363</v>
+        <v>1089</v>
       </c>
       <c r="E42" t="n">
-        <v>48.28</v>
+        <v>144.84</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="G42" t="n">
-        <v>2.01</v>
+        <v>6.02</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B43" t="n">
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>17619</v>
+        <v>52856</v>
       </c>
       <c r="D43" t="n">
-        <v>356</v>
+        <v>1068</v>
       </c>
       <c r="E43" t="n">
-        <v>47.35</v>
+        <v>142.04</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="G43" t="n">
-        <v>2.04</v>
+        <v>6.12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B44" t="n">
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>17270</v>
+        <v>51810</v>
       </c>
       <c r="D44" t="n">
-        <v>349</v>
+        <v>1046</v>
       </c>
       <c r="E44" t="n">
-        <v>46.42</v>
+        <v>139.12</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="G44" t="n">
-        <v>2.07</v>
+        <v>6.22</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B45" t="n">
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>16928</v>
+        <v>50784</v>
       </c>
       <c r="D45" t="n">
-        <v>342</v>
+        <v>1026</v>
       </c>
       <c r="E45" t="n">
-        <v>45.49</v>
+        <v>136.46</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>6.31</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B46" t="n">
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>16593</v>
+        <v>49778</v>
       </c>
       <c r="D46" t="n">
-        <v>335</v>
+        <v>1006</v>
       </c>
       <c r="E46" t="n">
-        <v>44.56</v>
+        <v>133.8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="G46" t="n">
-        <v>2.13</v>
+        <v>6.4</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B47" t="n">
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>16264</v>
+        <v>48793</v>
       </c>
       <c r="D47" t="n">
-        <v>329</v>
+        <v>985</v>
       </c>
       <c r="E47" t="n">
-        <v>43.76</v>
+        <v>131</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="G47" t="n">
-        <v>2.16</v>
+        <v>6.49</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B48" t="n">
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>15942</v>
+        <v>47827</v>
       </c>
       <c r="D48" t="n">
-        <v>322</v>
+        <v>966</v>
       </c>
       <c r="E48" t="n">
-        <v>42.83</v>
+        <v>128.48</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="G48" t="n">
-        <v>2.19</v>
+        <v>6.58</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B49" t="n">
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>15627</v>
+        <v>46880</v>
       </c>
       <c r="D49" t="n">
-        <v>315</v>
+        <v>947</v>
       </c>
       <c r="E49" t="n">
-        <v>41.9</v>
+        <v>125.95</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="G49" t="n">
-        <v>2.22</v>
+        <v>6.67</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B50" t="n">
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>15317</v>
+        <v>45952</v>
       </c>
       <c r="D50" t="n">
-        <v>310</v>
+        <v>928</v>
       </c>
       <c r="E50" t="n">
-        <v>41.23</v>
+        <v>123.42</v>
       </c>
       <c r="F50" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="G50" t="n">
-        <v>2.25</v>
+        <v>6.75</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B51" t="n">
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>15014</v>
+        <v>45042</v>
       </c>
       <c r="D51" t="n">
-        <v>303</v>
+        <v>910</v>
       </c>
       <c r="E51" t="n">
-        <v>40.3</v>
+        <v>121.03</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="G51" t="n">
-        <v>2.28</v>
+        <v>6.83</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B52" t="n">
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>14717</v>
+        <v>44150</v>
       </c>
       <c r="D52" t="n">
-        <v>297</v>
+        <v>892</v>
       </c>
       <c r="E52" t="n">
-        <v>39.5</v>
+        <v>118.64</v>
       </c>
       <c r="F52" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="G52" t="n">
-        <v>2.31</v>
+        <v>6.91</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B53" t="n">
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>14425</v>
+        <v>43276</v>
       </c>
       <c r="D53" t="n">
-        <v>292</v>
+        <v>874</v>
       </c>
       <c r="E53" t="n">
-        <v>38.84</v>
+        <v>116.24</v>
       </c>
       <c r="F53" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="G53" t="n">
-        <v>2.34</v>
+        <v>6.99</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B54" t="n">
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>14140</v>
+        <v>42419</v>
       </c>
       <c r="D54" t="n">
-        <v>285</v>
+        <v>857</v>
       </c>
       <c r="E54" t="n">
-        <v>37.91</v>
+        <v>113.98</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="G54" t="n">
-        <v>2.37</v>
+        <v>7.07</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5406,6 +6068,2842 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>39208</v>
+      </c>
+      <c r="D3" t="n">
+        <v>792</v>
+      </c>
+      <c r="E3" t="n">
+        <v>105.34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>38432</v>
+      </c>
+      <c r="D4" t="n">
+        <v>776</v>
+      </c>
+      <c r="E4" t="n">
+        <v>103.21</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>37671</v>
+      </c>
+      <c r="D5" t="n">
+        <v>761</v>
+      </c>
+      <c r="E5" t="n">
+        <v>101.21</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>36925</v>
+      </c>
+      <c r="D6" t="n">
+        <v>746</v>
+      </c>
+      <c r="E6" t="n">
+        <v>99.22</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>36194</v>
+      </c>
+      <c r="D7" t="n">
+        <v>731</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.22</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35477</v>
+      </c>
+      <c r="D8" t="n">
+        <v>717</v>
+      </c>
+      <c r="E8" t="n">
+        <v>95.36</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>34775</v>
+      </c>
+      <c r="D9" t="n">
+        <v>702</v>
+      </c>
+      <c r="E9" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>34086</v>
+      </c>
+      <c r="D10" t="n">
+        <v>689</v>
+      </c>
+      <c r="E10" t="n">
+        <v>91.64</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33411</v>
+      </c>
+      <c r="D11" t="n">
+        <v>675</v>
+      </c>
+      <c r="E11" t="n">
+        <v>89.78</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32750</v>
+      </c>
+      <c r="D12" t="n">
+        <v>661</v>
+      </c>
+      <c r="E12" t="n">
+        <v>87.91</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32101</v>
+      </c>
+      <c r="D13" t="n">
+        <v>649</v>
+      </c>
+      <c r="E13" t="n">
+        <v>86.32</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31466</v>
+      </c>
+      <c r="D14" t="n">
+        <v>635</v>
+      </c>
+      <c r="E14" t="n">
+        <v>84.46</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30843</v>
+      </c>
+      <c r="D15" t="n">
+        <v>623</v>
+      </c>
+      <c r="E15" t="n">
+        <v>82.86</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30232</v>
+      </c>
+      <c r="D16" t="n">
+        <v>611</v>
+      </c>
+      <c r="E16" t="n">
+        <v>81.26</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>29634</v>
+      </c>
+      <c r="D17" t="n">
+        <v>598</v>
+      </c>
+      <c r="E17" t="n">
+        <v>79.53</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>29047</v>
+      </c>
+      <c r="D18" t="n">
+        <v>587</v>
+      </c>
+      <c r="E18" t="n">
+        <v>78.07</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>28472</v>
+      </c>
+      <c r="D19" t="n">
+        <v>575</v>
+      </c>
+      <c r="E19" t="n">
+        <v>76.48</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>27908</v>
+      </c>
+      <c r="D20" t="n">
+        <v>564</v>
+      </c>
+      <c r="E20" t="n">
+        <v>75.01</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>27356</v>
+      </c>
+      <c r="D21" t="n">
+        <v>552</v>
+      </c>
+      <c r="E21" t="n">
+        <v>73.42</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>26814</v>
+      </c>
+      <c r="D22" t="n">
+        <v>542</v>
+      </c>
+      <c r="E22" t="n">
+        <v>72.09</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>26283</v>
+      </c>
+      <c r="D23" t="n">
+        <v>531</v>
+      </c>
+      <c r="E23" t="n">
+        <v>70.62</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>25763</v>
+      </c>
+      <c r="D24" t="n">
+        <v>520</v>
+      </c>
+      <c r="E24" t="n">
+        <v>69.16</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25253</v>
+      </c>
+      <c r="D25" t="n">
+        <v>510</v>
+      </c>
+      <c r="E25" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24753</v>
+      </c>
+      <c r="D26" t="n">
+        <v>500</v>
+      </c>
+      <c r="E26" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>24262</v>
+      </c>
+      <c r="D27" t="n">
+        <v>491</v>
+      </c>
+      <c r="E27" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>23782</v>
+      </c>
+      <c r="D28" t="n">
+        <v>480</v>
+      </c>
+      <c r="E28" t="n">
+        <v>63.84</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>23311</v>
+      </c>
+      <c r="D29" t="n">
+        <v>471</v>
+      </c>
+      <c r="E29" t="n">
+        <v>62.64</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>22850</v>
+      </c>
+      <c r="D30" t="n">
+        <v>461</v>
+      </c>
+      <c r="E30" t="n">
+        <v>61.31</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>22397</v>
+      </c>
+      <c r="D31" t="n">
+        <v>453</v>
+      </c>
+      <c r="E31" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>21954</v>
+      </c>
+      <c r="D32" t="n">
+        <v>443</v>
+      </c>
+      <c r="E32" t="n">
+        <v>58.92</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>21519</v>
+      </c>
+      <c r="D33" t="n">
+        <v>435</v>
+      </c>
+      <c r="E33" t="n">
+        <v>57.86</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>21093</v>
+      </c>
+      <c r="D34" t="n">
+        <v>426</v>
+      </c>
+      <c r="E34" t="n">
+        <v>56.66</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>20675</v>
+      </c>
+      <c r="D35" t="n">
+        <v>418</v>
+      </c>
+      <c r="E35" t="n">
+        <v>55.59</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>20266</v>
+      </c>
+      <c r="D36" t="n">
+        <v>409</v>
+      </c>
+      <c r="E36" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>19865</v>
+      </c>
+      <c r="D37" t="n">
+        <v>401</v>
+      </c>
+      <c r="E37" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>19472</v>
+      </c>
+      <c r="D38" t="n">
+        <v>393</v>
+      </c>
+      <c r="E38" t="n">
+        <v>52.27</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>19086</v>
+      </c>
+      <c r="D39" t="n">
+        <v>386</v>
+      </c>
+      <c r="E39" t="n">
+        <v>51.34</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>18708</v>
+      </c>
+      <c r="D40" t="n">
+        <v>378</v>
+      </c>
+      <c r="E40" t="n">
+        <v>50.27</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>18338</v>
+      </c>
+      <c r="D41" t="n">
+        <v>370</v>
+      </c>
+      <c r="E41" t="n">
+        <v>49.21</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>17975</v>
+      </c>
+      <c r="D42" t="n">
+        <v>363</v>
+      </c>
+      <c r="E42" t="n">
+        <v>48.28</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>17619</v>
+      </c>
+      <c r="D43" t="n">
+        <v>356</v>
+      </c>
+      <c r="E43" t="n">
+        <v>47.35</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>17270</v>
+      </c>
+      <c r="D44" t="n">
+        <v>349</v>
+      </c>
+      <c r="E44" t="n">
+        <v>46.42</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>16928</v>
+      </c>
+      <c r="D45" t="n">
+        <v>342</v>
+      </c>
+      <c r="E45" t="n">
+        <v>45.49</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>16593</v>
+      </c>
+      <c r="D46" t="n">
+        <v>335</v>
+      </c>
+      <c r="E46" t="n">
+        <v>44.56</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>16264</v>
+      </c>
+      <c r="D47" t="n">
+        <v>329</v>
+      </c>
+      <c r="E47" t="n">
+        <v>43.76</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>15942</v>
+      </c>
+      <c r="D48" t="n">
+        <v>322</v>
+      </c>
+      <c r="E48" t="n">
+        <v>42.83</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>15627</v>
+      </c>
+      <c r="D49" t="n">
+        <v>315</v>
+      </c>
+      <c r="E49" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>15317</v>
+      </c>
+      <c r="D50" t="n">
+        <v>310</v>
+      </c>
+      <c r="E50" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>15014</v>
+      </c>
+      <c r="D51" t="n">
+        <v>303</v>
+      </c>
+      <c r="E51" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>14717</v>
+      </c>
+      <c r="D52" t="n">
+        <v>297</v>
+      </c>
+      <c r="E52" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>14425</v>
+      </c>
+      <c r="D53" t="n">
+        <v>292</v>
+      </c>
+      <c r="E53" t="n">
+        <v>38.84</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>14140</v>
+      </c>
+      <c r="D54" t="n">
+        <v>285</v>
+      </c>
+      <c r="E54" t="n">
+        <v>37.91</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>24505</v>
+      </c>
+      <c r="D3" t="n">
+        <v>495</v>
+      </c>
+      <c r="E3" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24020</v>
+      </c>
+      <c r="D4" t="n">
+        <v>485</v>
+      </c>
+      <c r="E4" t="n">
+        <v>64.51</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23544</v>
+      </c>
+      <c r="D5" t="n">
+        <v>476</v>
+      </c>
+      <c r="E5" t="n">
+        <v>63.31</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23078</v>
+      </c>
+      <c r="D6" t="n">
+        <v>466</v>
+      </c>
+      <c r="E6" t="n">
+        <v>61.98</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22621</v>
+      </c>
+      <c r="D7" t="n">
+        <v>457</v>
+      </c>
+      <c r="E7" t="n">
+        <v>60.78</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22173</v>
+      </c>
+      <c r="D8" t="n">
+        <v>448</v>
+      </c>
+      <c r="E8" t="n">
+        <v>59.58</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>21734</v>
+      </c>
+      <c r="D9" t="n">
+        <v>439</v>
+      </c>
+      <c r="E9" t="n">
+        <v>58.39</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>21304</v>
+      </c>
+      <c r="D10" t="n">
+        <v>430</v>
+      </c>
+      <c r="E10" t="n">
+        <v>57.19</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20882</v>
+      </c>
+      <c r="D11" t="n">
+        <v>422</v>
+      </c>
+      <c r="E11" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20469</v>
+      </c>
+      <c r="D12" t="n">
+        <v>413</v>
+      </c>
+      <c r="E12" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20063</v>
+      </c>
+      <c r="D13" t="n">
+        <v>406</v>
+      </c>
+      <c r="E13" t="n">
+        <v>54</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>19666</v>
+      </c>
+      <c r="D14" t="n">
+        <v>397</v>
+      </c>
+      <c r="E14" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>19277</v>
+      </c>
+      <c r="D15" t="n">
+        <v>389</v>
+      </c>
+      <c r="E15" t="n">
+        <v>51.74</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>18895</v>
+      </c>
+      <c r="D16" t="n">
+        <v>382</v>
+      </c>
+      <c r="E16" t="n">
+        <v>50.81</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>18521</v>
+      </c>
+      <c r="D17" t="n">
+        <v>374</v>
+      </c>
+      <c r="E17" t="n">
+        <v>49.74</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>18154</v>
+      </c>
+      <c r="D18" t="n">
+        <v>367</v>
+      </c>
+      <c r="E18" t="n">
+        <v>48.81</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17795</v>
+      </c>
+      <c r="D19" t="n">
+        <v>359</v>
+      </c>
+      <c r="E19" t="n">
+        <v>47.75</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>17443</v>
+      </c>
+      <c r="D20" t="n">
+        <v>352</v>
+      </c>
+      <c r="E20" t="n">
+        <v>46.82</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>17097</v>
+      </c>
+      <c r="D21" t="n">
+        <v>346</v>
+      </c>
+      <c r="E21" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>16759</v>
+      </c>
+      <c r="D22" t="n">
+        <v>338</v>
+      </c>
+      <c r="E22" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>16427</v>
+      </c>
+      <c r="D23" t="n">
+        <v>332</v>
+      </c>
+      <c r="E23" t="n">
+        <v>44.16</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>16102</v>
+      </c>
+      <c r="D24" t="n">
+        <v>325</v>
+      </c>
+      <c r="E24" t="n">
+        <v>43.23</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>15783</v>
+      </c>
+      <c r="D25" t="n">
+        <v>319</v>
+      </c>
+      <c r="E25" t="n">
+        <v>42.43</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>15470</v>
+      </c>
+      <c r="D26" t="n">
+        <v>313</v>
+      </c>
+      <c r="E26" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>15164</v>
+      </c>
+      <c r="D27" t="n">
+        <v>306</v>
+      </c>
+      <c r="E27" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>14864</v>
+      </c>
+      <c r="D28" t="n">
+        <v>300</v>
+      </c>
+      <c r="E28" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>14570</v>
+      </c>
+      <c r="D29" t="n">
+        <v>294</v>
+      </c>
+      <c r="E29" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>14281</v>
+      </c>
+      <c r="D30" t="n">
+        <v>289</v>
+      </c>
+      <c r="E30" t="n">
+        <v>38.44</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>13998</v>
+      </c>
+      <c r="D31" t="n">
+        <v>283</v>
+      </c>
+      <c r="E31" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>13721</v>
+      </c>
+      <c r="D32" t="n">
+        <v>277</v>
+      </c>
+      <c r="E32" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>13449</v>
+      </c>
+      <c r="D33" t="n">
+        <v>272</v>
+      </c>
+      <c r="E33" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>13183</v>
+      </c>
+      <c r="D34" t="n">
+        <v>266</v>
+      </c>
+      <c r="E34" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12922</v>
+      </c>
+      <c r="D35" t="n">
+        <v>261</v>
+      </c>
+      <c r="E35" t="n">
+        <v>34.71</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12666</v>
+      </c>
+      <c r="D36" t="n">
+        <v>256</v>
+      </c>
+      <c r="E36" t="n">
+        <v>34.05</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12416</v>
+      </c>
+      <c r="D37" t="n">
+        <v>250</v>
+      </c>
+      <c r="E37" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12170</v>
+      </c>
+      <c r="D38" t="n">
+        <v>246</v>
+      </c>
+      <c r="E38" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>11929</v>
+      </c>
+      <c r="D39" t="n">
+        <v>241</v>
+      </c>
+      <c r="E39" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>11693</v>
+      </c>
+      <c r="D40" t="n">
+        <v>236</v>
+      </c>
+      <c r="E40" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>11461</v>
+      </c>
+      <c r="D41" t="n">
+        <v>232</v>
+      </c>
+      <c r="E41" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>11234</v>
+      </c>
+      <c r="D42" t="n">
+        <v>227</v>
+      </c>
+      <c r="E42" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11012</v>
+      </c>
+      <c r="D43" t="n">
+        <v>222</v>
+      </c>
+      <c r="E43" t="n">
+        <v>29.53</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10794</v>
+      </c>
+      <c r="D44" t="n">
+        <v>218</v>
+      </c>
+      <c r="E44" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10580</v>
+      </c>
+      <c r="D45" t="n">
+        <v>214</v>
+      </c>
+      <c r="E45" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10371</v>
+      </c>
+      <c r="D46" t="n">
+        <v>209</v>
+      </c>
+      <c r="E46" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>10165</v>
+      </c>
+      <c r="D47" t="n">
+        <v>206</v>
+      </c>
+      <c r="E47" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>9964</v>
+      </c>
+      <c r="D48" t="n">
+        <v>201</v>
+      </c>
+      <c r="E48" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>9767</v>
+      </c>
+      <c r="D49" t="n">
+        <v>197</v>
+      </c>
+      <c r="E49" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9573</v>
+      </c>
+      <c r="D50" t="n">
+        <v>194</v>
+      </c>
+      <c r="E50" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9384</v>
+      </c>
+      <c r="D51" t="n">
+        <v>189</v>
+      </c>
+      <c r="E51" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>9198</v>
+      </c>
+      <c r="D52" t="n">
+        <v>186</v>
+      </c>
+      <c r="E52" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>9016</v>
+      </c>
+      <c r="D53" t="n">
+        <v>182</v>
+      </c>
+      <c r="E53" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8837</v>
+      </c>
+      <c r="D54" t="n">
+        <v>179</v>
+      </c>
+      <c r="E54" t="n">
+        <v>23.81</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -5429,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>340000</v>
+        <v>465000</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -5449,19 +8947,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>333268</v>
+        <v>455793</v>
       </c>
       <c r="C3" t="n">
-        <v>6732</v>
+        <v>9207</v>
       </c>
       <c r="D3" t="n">
-        <v>895.36</v>
+        <v>1093.86</v>
       </c>
       <c r="E3" t="n">
-        <v>0.61</v>
+        <v>0.75</v>
       </c>
       <c r="F3" t="n">
-        <v>0.61</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -5469,19 +8967,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>326669</v>
+        <v>446768</v>
       </c>
       <c r="C4" t="n">
-        <v>6599</v>
+        <v>9025</v>
       </c>
       <c r="D4" t="n">
-        <v>877.67</v>
+        <v>1072.23</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="F4" t="n">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="5">
@@ -5489,19 +8987,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>320202</v>
+        <v>437923</v>
       </c>
       <c r="C5" t="n">
-        <v>6467</v>
+        <v>8845</v>
       </c>
       <c r="D5" t="n">
-        <v>860.11</v>
+        <v>1050.85</v>
       </c>
       <c r="E5" t="n">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="6">
@@ -5509,19 +9007,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>313862</v>
+        <v>429252</v>
       </c>
       <c r="C6" t="n">
-        <v>6340</v>
+        <v>8671</v>
       </c>
       <c r="D6" t="n">
-        <v>843.23</v>
+        <v>1030.17</v>
       </c>
       <c r="E6" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="F6" t="n">
-        <v>2.38</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="7">
@@ -5529,19 +9027,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>307649</v>
+        <v>420755</v>
       </c>
       <c r="C7" t="n">
-        <v>6213</v>
+        <v>8497</v>
       </c>
       <c r="D7" t="n">
-        <v>826.33</v>
+        <v>1009.52</v>
       </c>
       <c r="E7" t="n">
-        <v>0.57</v>
+        <v>0.69</v>
       </c>
       <c r="F7" t="n">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8">
@@ -5549,19 +9047,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>301557</v>
+        <v>412423</v>
       </c>
       <c r="C8" t="n">
-        <v>6092</v>
+        <v>8332</v>
       </c>
       <c r="D8" t="n">
-        <v>810.24</v>
+        <v>989.88</v>
       </c>
       <c r="E8" t="n">
-        <v>0.56</v>
+        <v>0.68</v>
       </c>
       <c r="F8" t="n">
-        <v>3.51</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="9">
@@ -5569,19 +9067,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>295587</v>
+        <v>404258</v>
       </c>
       <c r="C9" t="n">
-        <v>5970</v>
+        <v>8165</v>
       </c>
       <c r="D9" t="n">
-        <v>794.01</v>
+        <v>970.05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="F9" t="n">
-        <v>4.05</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="10">
@@ -5589,19 +9087,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>289734</v>
+        <v>396254</v>
       </c>
       <c r="C10" t="n">
-        <v>5853</v>
+        <v>8004</v>
       </c>
       <c r="D10" t="n">
-        <v>778.45</v>
+        <v>950.95</v>
       </c>
       <c r="E10" t="n">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="F10" t="n">
-        <v>4.59</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="11">
@@ -5609,19 +9107,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>283997</v>
+        <v>388408</v>
       </c>
       <c r="C11" t="n">
-        <v>5737</v>
+        <v>7846</v>
       </c>
       <c r="D11" t="n">
-        <v>763.02</v>
+        <v>932.18</v>
       </c>
       <c r="E11" t="n">
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
       <c r="F11" t="n">
-        <v>5.1</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="12">
@@ -5629,19 +9127,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>278375</v>
+        <v>380719</v>
       </c>
       <c r="C12" t="n">
-        <v>5622</v>
+        <v>7689</v>
       </c>
       <c r="D12" t="n">
-        <v>747.72</v>
+        <v>913.47</v>
       </c>
       <c r="E12" t="n">
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
       <c r="F12" t="n">
-        <v>5.61</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="13">
@@ -5649,19 +9147,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>272862</v>
+        <v>373179</v>
       </c>
       <c r="C13" t="n">
-        <v>5513</v>
+        <v>7540</v>
       </c>
       <c r="D13" t="n">
-        <v>733.23</v>
+        <v>895.84</v>
       </c>
       <c r="E13" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="F13" t="n">
-        <v>6.12</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="14">
@@ -5669,19 +9167,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>267461</v>
+        <v>365792</v>
       </c>
       <c r="C14" t="n">
-        <v>5401</v>
+        <v>7387</v>
       </c>
       <c r="D14" t="n">
-        <v>718.34</v>
+        <v>877.6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5</v>
+        <v>0.61</v>
       </c>
       <c r="F14" t="n">
-        <v>6.62</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="15">
@@ -5689,19 +9187,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>262165</v>
+        <v>358549</v>
       </c>
       <c r="C15" t="n">
-        <v>5296</v>
+        <v>7243</v>
       </c>
       <c r="D15" t="n">
-        <v>704.37</v>
+        <v>860.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="F15" t="n">
-        <v>7.1</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="16">
@@ -5709,19 +9207,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>256974</v>
+        <v>351450</v>
       </c>
       <c r="C16" t="n">
-        <v>5191</v>
+        <v>7099</v>
       </c>
       <c r="D16" t="n">
-        <v>690.41</v>
+        <v>843.46</v>
       </c>
       <c r="E16" t="n">
-        <v>0.48</v>
+        <v>0.58</v>
       </c>
       <c r="F16" t="n">
-        <v>7.58</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="17">
@@ -5729,19 +9227,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>251886</v>
+        <v>344491</v>
       </c>
       <c r="C17" t="n">
-        <v>5088</v>
+        <v>6959</v>
       </c>
       <c r="D17" t="n">
-        <v>676.7</v>
+        <v>826.74</v>
       </c>
       <c r="E17" t="n">
-        <v>0.46</v>
+        <v>0.56</v>
       </c>
       <c r="F17" t="n">
-        <v>8.04</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="18">
@@ -5749,19 +9247,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>246899</v>
+        <v>337670</v>
       </c>
       <c r="C18" t="n">
-        <v>4987</v>
+        <v>6821</v>
       </c>
       <c r="D18" t="n">
-        <v>663.27</v>
+        <v>810.37</v>
       </c>
       <c r="E18" t="n">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="F18" t="n">
-        <v>8.49</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="19">
@@ -5769,19 +9267,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>242011</v>
+        <v>330986</v>
       </c>
       <c r="C19" t="n">
-        <v>4888</v>
+        <v>6684</v>
       </c>
       <c r="D19" t="n">
-        <v>650.11</v>
+        <v>794.14</v>
       </c>
       <c r="E19" t="n">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="F19" t="n">
-        <v>8.94</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="20">
@@ -5789,19 +9287,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>237218</v>
+        <v>324431</v>
       </c>
       <c r="C20" t="n">
-        <v>4793</v>
+        <v>6555</v>
       </c>
       <c r="D20" t="n">
-        <v>637.46</v>
+        <v>778.75</v>
       </c>
       <c r="E20" t="n">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="F20" t="n">
-        <v>9.37</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="21">
@@ -5809,19 +9307,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>232523</v>
+        <v>318009</v>
       </c>
       <c r="C21" t="n">
-        <v>4695</v>
+        <v>6422</v>
       </c>
       <c r="D21" t="n">
-        <v>624.43</v>
+        <v>762.98</v>
       </c>
       <c r="E21" t="n">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="F21" t="n">
-        <v>9.8</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="22">
@@ -5829,19 +9327,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>227919</v>
+        <v>311713</v>
       </c>
       <c r="C22" t="n">
-        <v>4604</v>
+        <v>6296</v>
       </c>
       <c r="D22" t="n">
-        <v>612.33</v>
+        <v>748</v>
       </c>
       <c r="E22" t="n">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="F22" t="n">
-        <v>10.22</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="23">
@@ -5849,19 +9347,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>223406</v>
+        <v>305541</v>
       </c>
       <c r="C23" t="n">
-        <v>4513</v>
+        <v>6172</v>
       </c>
       <c r="D23" t="n">
-        <v>600.23</v>
+        <v>733.3</v>
       </c>
       <c r="E23" t="n">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="F23" t="n">
-        <v>10.64</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="24">
@@ -5869,19 +9367,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>218983</v>
+        <v>299492</v>
       </c>
       <c r="C24" t="n">
-        <v>4423</v>
+        <v>6049</v>
       </c>
       <c r="D24" t="n">
-        <v>588.25</v>
+        <v>718.65</v>
       </c>
       <c r="E24" t="n">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="F24" t="n">
-        <v>11.05</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="25">
@@ -5889,19 +9387,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>214647</v>
+        <v>293561</v>
       </c>
       <c r="C25" t="n">
-        <v>4336</v>
+        <v>5931</v>
       </c>
       <c r="D25" t="n">
-        <v>576.69</v>
+        <v>704.61</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="F25" t="n">
-        <v>11.45</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="26">
@@ -5909,19 +9407,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>210397</v>
+        <v>287748</v>
       </c>
       <c r="C26" t="n">
-        <v>4250</v>
+        <v>5813</v>
       </c>
       <c r="D26" t="n">
-        <v>565.25</v>
+        <v>690.63</v>
       </c>
       <c r="E26" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="F26" t="n">
-        <v>11.84</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="27">
@@ -5929,19 +9427,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>206230</v>
+        <v>282050</v>
       </c>
       <c r="C27" t="n">
-        <v>4167</v>
+        <v>5698</v>
       </c>
       <c r="D27" t="n">
-        <v>554.21</v>
+        <v>676.99</v>
       </c>
       <c r="E27" t="n">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="F27" t="n">
-        <v>12.21</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="28">
@@ -5949,19 +9447,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>202147</v>
+        <v>276466</v>
       </c>
       <c r="C28" t="n">
-        <v>4083</v>
+        <v>5584</v>
       </c>
       <c r="D28" t="n">
-        <v>543.03</v>
+        <v>663.4</v>
       </c>
       <c r="E28" t="n">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="F28" t="n">
-        <v>12.58</v>
+        <v>15.37</v>
       </c>
     </row>
     <row r="29">
@@ -5969,19 +9467,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>198145</v>
+        <v>270993</v>
       </c>
       <c r="C29" t="n">
-        <v>4002</v>
+        <v>5473</v>
       </c>
       <c r="D29" t="n">
-        <v>532.27</v>
+        <v>650.23</v>
       </c>
       <c r="E29" t="n">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="F29" t="n">
-        <v>12.95</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="30">
@@ -5989,19 +9487,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>194222</v>
+        <v>265627</v>
       </c>
       <c r="C30" t="n">
-        <v>3923</v>
+        <v>5366</v>
       </c>
       <c r="D30" t="n">
-        <v>521.76</v>
+        <v>637.52</v>
       </c>
       <c r="E30" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="F30" t="n">
-        <v>13.31</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="31">
@@ -6009,19 +9507,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>190377</v>
+        <v>260368</v>
       </c>
       <c r="C31" t="n">
-        <v>3845</v>
+        <v>5259</v>
       </c>
       <c r="D31" t="n">
-        <v>511.38</v>
+        <v>624.8</v>
       </c>
       <c r="E31" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="F31" t="n">
-        <v>13.65</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="32">
@@ -6029,19 +9527,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>186608</v>
+        <v>255214</v>
       </c>
       <c r="C32" t="n">
-        <v>3769</v>
+        <v>5154</v>
       </c>
       <c r="D32" t="n">
-        <v>501.27</v>
+        <v>612.35</v>
       </c>
       <c r="E32" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="F32" t="n">
-        <v>13.99</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="33">
@@ -6049,19 +9547,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>182912</v>
+        <v>250159</v>
       </c>
       <c r="C33" t="n">
-        <v>3696</v>
+        <v>5055</v>
       </c>
       <c r="D33" t="n">
-        <v>491.57</v>
+        <v>600.58</v>
       </c>
       <c r="E33" t="n">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="F33" t="n">
-        <v>14.33</v>
+        <v>17.51</v>
       </c>
     </row>
     <row r="34">
@@ -6069,19 +9567,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>179291</v>
+        <v>245207</v>
       </c>
       <c r="C34" t="n">
-        <v>3621</v>
+        <v>4952</v>
       </c>
       <c r="D34" t="n">
-        <v>481.6</v>
+        <v>588.34</v>
       </c>
       <c r="E34" t="n">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="F34" t="n">
-        <v>14.67</v>
+        <v>17.92</v>
       </c>
     </row>
     <row r="35">
@@ -6089,19 +9587,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>175741</v>
+        <v>240352</v>
       </c>
       <c r="C35" t="n">
-        <v>3550</v>
+        <v>4855</v>
       </c>
       <c r="D35" t="n">
-        <v>472.15</v>
+        <v>576.81</v>
       </c>
       <c r="E35" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="F35" t="n">
-        <v>15</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="36">
@@ -6109,19 +9607,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>172261</v>
+        <v>235592</v>
       </c>
       <c r="C36" t="n">
-        <v>3480</v>
+        <v>4760</v>
       </c>
       <c r="D36" t="n">
-        <v>462.84</v>
+        <v>565.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="F36" t="n">
-        <v>15.31</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="37">
@@ -6129,19 +9627,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>168852</v>
+        <v>230930</v>
       </c>
       <c r="C37" t="n">
-        <v>3409</v>
+        <v>4662</v>
       </c>
       <c r="D37" t="n">
-        <v>453.4</v>
+        <v>553.85</v>
       </c>
       <c r="E37" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="F37" t="n">
-        <v>15.62</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="38">
@@ -6149,19 +9647,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>165509</v>
+        <v>226358</v>
       </c>
       <c r="C38" t="n">
-        <v>3343</v>
+        <v>4572</v>
       </c>
       <c r="D38" t="n">
-        <v>444.62</v>
+        <v>543.2</v>
       </c>
       <c r="E38" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="F38" t="n">
-        <v>15.93</v>
+        <v>19.46</v>
       </c>
     </row>
     <row r="39">
@@ -6169,19 +9667,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>162231</v>
+        <v>221875</v>
       </c>
       <c r="C39" t="n">
-        <v>3278</v>
+        <v>4483</v>
       </c>
       <c r="D39" t="n">
-        <v>435.97</v>
+        <v>532.61</v>
       </c>
       <c r="E39" t="n">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
       <c r="F39" t="n">
-        <v>16.24</v>
+        <v>19.83</v>
       </c>
     </row>
     <row r="40">
@@ -6189,19 +9687,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>159018</v>
+        <v>217481</v>
       </c>
       <c r="C40" t="n">
-        <v>3213</v>
+        <v>4394</v>
       </c>
       <c r="D40" t="n">
-        <v>427.32</v>
+        <v>522.03</v>
       </c>
       <c r="E40" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="F40" t="n">
-        <v>16.53</v>
+        <v>20.18</v>
       </c>
     </row>
     <row r="41">
@@ -6209,19 +9707,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>155870</v>
+        <v>213175</v>
       </c>
       <c r="C41" t="n">
-        <v>3148</v>
+        <v>4306</v>
       </c>
       <c r="D41" t="n">
-        <v>418.68</v>
+        <v>511.58</v>
       </c>
       <c r="E41" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="F41" t="n">
-        <v>16.81</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="42">
@@ -6229,19 +9727,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>152785</v>
+        <v>208956</v>
       </c>
       <c r="C42" t="n">
-        <v>3085</v>
+        <v>4219</v>
       </c>
       <c r="D42" t="n">
-        <v>410.31</v>
+        <v>501.27</v>
       </c>
       <c r="E42" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="F42" t="n">
-        <v>17.09</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="43">
@@ -6249,19 +9747,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>149760</v>
+        <v>204819</v>
       </c>
       <c r="C43" t="n">
-        <v>3025</v>
+        <v>4137</v>
       </c>
       <c r="D43" t="n">
-        <v>402.32</v>
+        <v>491.48</v>
       </c>
       <c r="E43" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="F43" t="n">
-        <v>17.36</v>
+        <v>21.19</v>
       </c>
     </row>
     <row r="44">
@@ -6269,19 +9767,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>146795</v>
+        <v>200764</v>
       </c>
       <c r="C44" t="n">
-        <v>2965</v>
+        <v>4055</v>
       </c>
       <c r="D44" t="n">
-        <v>394.35</v>
+        <v>481.76</v>
       </c>
       <c r="E44" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="F44" t="n">
-        <v>17.63</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="45">
@@ -6289,19 +9787,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>143888</v>
+        <v>196788</v>
       </c>
       <c r="C45" t="n">
-        <v>2907</v>
+        <v>3976</v>
       </c>
       <c r="D45" t="n">
-        <v>386.64</v>
+        <v>472.39</v>
       </c>
       <c r="E45" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="F45" t="n">
-        <v>17.89</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="46">
@@ -6309,19 +9807,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>141039</v>
+        <v>192892</v>
       </c>
       <c r="C46" t="n">
-        <v>2849</v>
+        <v>3896</v>
       </c>
       <c r="D46" t="n">
-        <v>378.92</v>
+        <v>462.87</v>
       </c>
       <c r="E46" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="F46" t="n">
-        <v>18.15</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="47">
@@ -6329,19 +9827,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>138247</v>
+        <v>189073</v>
       </c>
       <c r="C47" t="n">
-        <v>2792</v>
+        <v>3819</v>
       </c>
       <c r="D47" t="n">
-        <v>371.33</v>
+        <v>453.74</v>
       </c>
       <c r="E47" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="F47" t="n">
-        <v>18.4</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="48">
@@ -6349,19 +9847,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>135510</v>
+        <v>185330</v>
       </c>
       <c r="C48" t="n">
-        <v>2737</v>
+        <v>3743</v>
       </c>
       <c r="D48" t="n">
-        <v>364.03</v>
+        <v>444.7</v>
       </c>
       <c r="E48" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="F48" t="n">
-        <v>18.65</v>
+        <v>22.78</v>
       </c>
     </row>
     <row r="49">
@@ -6369,19 +9867,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>132827</v>
+        <v>181661</v>
       </c>
       <c r="C49" t="n">
-        <v>2683</v>
+        <v>3669</v>
       </c>
       <c r="D49" t="n">
-        <v>356.85</v>
+        <v>435.91</v>
       </c>
       <c r="E49" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="F49" t="n">
-        <v>18.9</v>
+        <v>23.09</v>
       </c>
     </row>
     <row r="50">
@@ -6389,19 +9887,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>130196</v>
+        <v>178062</v>
       </c>
       <c r="C50" t="n">
-        <v>2631</v>
+        <v>3599</v>
       </c>
       <c r="D50" t="n">
-        <v>349.92</v>
+        <v>427.58</v>
       </c>
       <c r="E50" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="F50" t="n">
-        <v>19.14</v>
+        <v>23.39</v>
       </c>
     </row>
     <row r="51">
@@ -6409,19 +9907,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>127619</v>
+        <v>174538</v>
       </c>
       <c r="C51" t="n">
-        <v>2577</v>
+        <v>3524</v>
       </c>
       <c r="D51" t="n">
-        <v>342.74</v>
+        <v>418.67</v>
       </c>
       <c r="E51" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="F51" t="n">
-        <v>19.38</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="52">
@@ -6429,19 +9927,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>125092</v>
+        <v>171082</v>
       </c>
       <c r="C52" t="n">
-        <v>2527</v>
+        <v>3456</v>
       </c>
       <c r="D52" t="n">
-        <v>336.1</v>
+        <v>410.62</v>
       </c>
       <c r="E52" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="F52" t="n">
-        <v>19.61</v>
+        <v>23.96</v>
       </c>
     </row>
     <row r="53">
@@ -6449,19 +9947,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>122615</v>
+        <v>167694</v>
       </c>
       <c r="C53" t="n">
-        <v>2477</v>
+        <v>3388</v>
       </c>
       <c r="D53" t="n">
-        <v>329.45</v>
+        <v>402.5</v>
       </c>
       <c r="E53" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="F53" t="n">
-        <v>19.84</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="54">
@@ -6469,19 +9967,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>120187</v>
+        <v>164373</v>
       </c>
       <c r="C54" t="n">
-        <v>2428</v>
+        <v>3321</v>
       </c>
       <c r="D54" t="n">
-        <v>322.93</v>
+        <v>394.58</v>
       </c>
       <c r="E54" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="F54" t="n">
-        <v>20.07</v>
+        <v>24.52</v>
       </c>
     </row>
   </sheetData>
